--- a/054 텍스트 추출 LEFT, RIGHT, MID.xlsx
+++ b/054 텍스트 추출 LEFT, RIGHT, MID.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hightop\Desktop\자격증 관련\Excel (인프런)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F19CA50-3D62-4FC5-97BF-635F4F1BFC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A3A1E8-19C0-41D1-94EC-A588670CC54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30630" yWindow="735" windowWidth="23265" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30360" yWindow="570" windowWidth="23265" windowHeight="14100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="텍스트함수" sheetId="1" r:id="rId1"/>
+    <sheet name="주민번호뒷자리감추기" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>교육생 명단</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -129,6 +130,239 @@
   </si>
   <si>
     <t>031110-3******</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LEFT와 RIGHT는 왼쪽(오른쪽)에서부터 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>입력한 글자 수만큼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> 추출해주는 함수이다.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MID는 대상 문자열에 대해 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>입력한 숫자의 위치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">부터 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>입력한 글자 수만큼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> 추출해주는 함수이다.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>990325-2715526</t>
+  </si>
+  <si>
+    <t>조민희</t>
+  </si>
+  <si>
+    <t>여</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>021201-3190622</t>
+  </si>
+  <si>
+    <t>이훈석</t>
+  </si>
+  <si>
+    <t>남</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>001020-4240417</t>
+  </si>
+  <si>
+    <t>차지혜</t>
+  </si>
+  <si>
+    <t>991129-1107911</t>
+  </si>
+  <si>
+    <t>김준호</t>
+  </si>
+  <si>
+    <t>030929-4155019</t>
+  </si>
+  <si>
+    <t>980509-2110913</t>
+  </si>
+  <si>
+    <t>이정희</t>
+  </si>
+  <si>
+    <t>790321-1146018</t>
+  </si>
+  <si>
+    <t>890413-1829119</t>
+  </si>
+  <si>
+    <t>851110-2172211</t>
+  </si>
+  <si>
+    <t>민주희</t>
+  </si>
+  <si>
+    <t>REPLACE(B3,9,6,"******")</t>
+  </si>
+  <si>
+    <r>
+      <t>LEFT(B3,8)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>"******"</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">문자열을 결합해주는 함수도 있으며, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>CONCAT("문자열1", "문자열2", … )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> 이다.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">엑셀에서 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>앰퍼샌드(&amp;)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">는 문자열 결합 연산을 처리해준다. </t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -136,11 +370,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
+  <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,8 +456,60 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,6 +525,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF0F8FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,7 +567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -310,17 +601,23 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -338,6 +635,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>904869</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F32FDD-50E8-26D6-7C7E-CDA02A099588}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6362700" y="857250"/>
+          <a:ext cx="2238369" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1117593</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C7D3FCF-2530-0D84-1C01-70937BDC2D76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6353175" y="1238250"/>
+          <a:ext cx="2460618" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>273041</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C25981D4-68B0-BEA7-5CEC-293F013C0B3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6324600" y="2171700"/>
+          <a:ext cx="3454391" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -605,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -622,13 +1056,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="31.5">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:10" ht="12.75" customHeight="1">
       <c r="B2" s="2"/>
@@ -643,7 +1077,7 @@
       </c>
       <c r="C3" s="4">
         <f ca="1">NOW()</f>
-        <v>45519.762593171297</v>
+        <v>45519.929075810185</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="7"/>
@@ -672,9 +1106,18 @@
       <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="10"/>
+      <c r="D5" s="10">
+        <f>2000+VALUE(LEFT(C5,2))</f>
+        <v>2002</v>
+      </c>
+      <c r="E5" s="10">
+        <f>VALUE(MID(C5,3,2))</f>
+        <v>3</v>
+      </c>
+      <c r="F5" s="10">
+        <f>VALUE(MID(C5,5,2))</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="2:10" ht="24" customHeight="1">
       <c r="B6" s="9" t="s">
@@ -683,9 +1126,21 @@
       <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="10"/>
+      <c r="D6" s="10">
+        <f t="shared" ref="D6:D13" si="0">2000+VALUE(LEFT(C6,2))</f>
+        <v>2002</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" ref="E6:E13" si="1">VALUE(MID(C6,3,2))</f>
+        <v>12</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" ref="F6:F13" si="2">VALUE(MID(C6,5,2))</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="2:10" ht="24" customHeight="1">
       <c r="B7" s="9" t="s">
@@ -694,10 +1149,19 @@
       <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="10"/>
-      <c r="J7" s="13"/>
+      <c r="D7" s="10">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="2:10" ht="24" customHeight="1">
       <c r="B8" s="9" t="s">
@@ -706,9 +1170,18 @@
       <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="10"/>
+      <c r="D8" s="10">
+        <f t="shared" si="0"/>
+        <v>2003</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="2:10" ht="24" customHeight="1">
       <c r="B9" s="9" t="s">
@@ -717,9 +1190,21 @@
       <c r="C9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="10"/>
+      <c r="D9" s="10">
+        <f t="shared" si="0"/>
+        <v>2003</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="2:10" ht="24" customHeight="1">
       <c r="B10" s="9" t="s">
@@ -728,9 +1213,18 @@
       <c r="C10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="10"/>
+      <c r="D10" s="10">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="2:10" ht="24" customHeight="1">
       <c r="B11" s="9" t="s">
@@ -739,9 +1233,18 @@
       <c r="C11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="10"/>
+      <c r="D11" s="10">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="2:10" ht="24" customHeight="1">
       <c r="B12" s="9" t="s">
@@ -750,9 +1253,18 @@
       <c r="C12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="10"/>
+      <c r="D12" s="10">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="2:10" ht="24" customHeight="1">
       <c r="B13" s="9" t="s">
@@ -761,9 +1273,18 @@
       <c r="C13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="10"/>
+      <c r="D13" s="10">
+        <f t="shared" si="0"/>
+        <v>2003</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -772,5 +1293,336 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1413468-48F4-4361-85FA-8B354415D35A}">
+  <dimension ref="B1:F38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="27.625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="12.75" customHeight="1"/>
+    <row r="2" spans="2:6" ht="27.75" customHeight="1">
+      <c r="B2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="27.75" customHeight="1">
+      <c r="B3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="14" t="str">
+        <f>LEFT(B3,8)&amp;"******"</f>
+        <v>990325-2******</v>
+      </c>
+      <c r="F3" s="14" t="str">
+        <f>REPLACE(B3,9,6,"******")</f>
+        <v>990325-2******</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="27.75" customHeight="1">
+      <c r="B4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="14" t="str">
+        <f t="shared" ref="E4:F11" si="0">LEFT(B4,8)&amp;"******"</f>
+        <v>021201-3******</v>
+      </c>
+      <c r="F4" s="14" t="str">
+        <f t="shared" ref="F4:F11" si="1">REPLACE(B4,9,6,"******")</f>
+        <v>021201-3******</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="27.75" customHeight="1">
+      <c r="B5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>001020-4******</v>
+      </c>
+      <c r="F5" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>001020-4******</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="27.75" customHeight="1">
+      <c r="B6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>991129-1******</v>
+      </c>
+      <c r="F6" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>991129-1******</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="27.75" customHeight="1">
+      <c r="B7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>030929-4******</v>
+      </c>
+      <c r="F7" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>030929-4******</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="27.75" customHeight="1">
+      <c r="B8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>980509-2******</v>
+      </c>
+      <c r="F8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>980509-2******</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="27.75" customHeight="1">
+      <c r="B9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>790321-1******</v>
+      </c>
+      <c r="F9" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>790321-1******</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="27.75" customHeight="1">
+      <c r="B10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>890413-1******</v>
+      </c>
+      <c r="F10" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>890413-1******</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="27.75" customHeight="1">
+      <c r="B11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>851110-2******</v>
+      </c>
+      <c r="F11" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>851110-2******</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1">
+      <c r="E12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="24" customHeight="1">
+      <c r="E14" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="23.25" customHeight="1">
+      <c r="E15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="16.5">
+      <c r="C18" s="6"/>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="2:4" ht="16.5">
+      <c r="C19" s="6"/>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="2:4" ht="16.5">
+      <c r="C20" s="6"/>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="2:4" ht="16.5">
+      <c r="C21" s="6"/>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="2:4" ht="16.5">
+      <c r="C22" s="6"/>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="2:4" ht="16.5">
+      <c r="C23" s="6"/>
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="2:4" ht="16.5">
+      <c r="C24" s="6"/>
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="2:4" ht="16.5">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="2:4" ht="16.5">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="2:4" ht="16.5">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="2:4" ht="16.5">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="2:4" ht="16.5">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="2:4" ht="16.5">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="2:4" ht="16.5">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="2:4" ht="16.5">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33" spans="2:4" ht="16.5">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="15"/>
+    </row>
+    <row r="34" spans="2:4" ht="16.5">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" spans="2:4" ht="16.5">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="15"/>
+    </row>
+    <row r="36" spans="2:4" ht="16.5">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="2:4" ht="16.5">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="2:4" ht="16.5">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>